--- a/patches.xlsx
+++ b/patches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msys64\home\user\gamedbpython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\gamedbpython\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="patches" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patches!$A$1:$K$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">patches!$A$1:$J$46</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="170">
   <si>
     <t>Action</t>
   </si>
@@ -116,16 +116,427 @@
     <t>manual check Tao : Wrong match</t>
   </si>
   <si>
-    <t>13195</t>
-  </si>
-  <si>
     <t>Reinsert correct match</t>
   </si>
   <si>
-    <t>13327</t>
-  </si>
-  <si>
-    <t>sql</t>
+    <t>/atari7800/585410-mean-18-golf</t>
+  </si>
+  <si>
+    <t>manual check Tao : Insert URL</t>
+  </si>
+  <si>
+    <t>/wsc/934313-digimon-anode-cathode-tamer-veedramon-version</t>
+  </si>
+  <si>
+    <t>/wsc/578099-battle-spirit-digimon-tamers-ver-15</t>
+  </si>
+  <si>
+    <t>/wonderswan/577185-meta-communication-therapy-nee-kiite</t>
+  </si>
+  <si>
+    <t>/channelf/938736-democart-01</t>
+  </si>
+  <si>
+    <t>/channelf/927669-videocart-8-magic-numbers</t>
+  </si>
+  <si>
+    <t>/channelf/927667-videocart-6-math-quiz</t>
+  </si>
+  <si>
+    <t>/channelf/927668-videocart-7-math-quiz-ii</t>
+  </si>
+  <si>
+    <t>/channelf/927671-videocart-10-maze</t>
+  </si>
+  <si>
+    <t>/gp32/567458-dyhard-infinity</t>
+  </si>
+  <si>
+    <t>/msx/929614-fantasy-zone-ii-opa-opa-no-namida</t>
+  </si>
+  <si>
+    <t>/msx/935994-andorogynus</t>
+  </si>
+  <si>
+    <t>/msx/953093-maison-ikkoku-kanketsuhen</t>
+  </si>
+  <si>
+    <t>/msx/941476-maison-ikkoku</t>
+  </si>
+  <si>
+    <t>/msx/952032-mississippi-satsujin-jiken-murder-on-the-mississippi</t>
+  </si>
+  <si>
+    <t>/msx/940039-the-return-of-ishtar</t>
+  </si>
+  <si>
+    <t>/msx/918189-seikima-ii-special</t>
+  </si>
+  <si>
+    <t>/msx/953187-taiyou-no-shinden</t>
+  </si>
+  <si>
+    <t>/msx/934851-usas</t>
+  </si>
+  <si>
+    <t>/msx/934713-ultima-iii-exodus</t>
+  </si>
+  <si>
+    <t>/msx/953116-victorious-nine-ii</t>
+  </si>
+  <si>
+    <t>/msx/953165-kyoto-ryuu-no-tera-satsujin-jiken</t>
+  </si>
+  <si>
+    <t>/msx/936553-albatros-tournament-golf</t>
+  </si>
+  <si>
+    <t>/msx/918008-alcazar</t>
+  </si>
+  <si>
+    <t>/msx/918009-alibaba-and-40-thieves</t>
+  </si>
+  <si>
+    <t>/msx/934975-bcs-quest-for-tires</t>
+  </si>
+  <si>
+    <t>/msx/918040-bull-to-mighty-kiki-ippatsu</t>
+  </si>
+  <si>
+    <t>/msx/934784-dragon-quest-ii</t>
+  </si>
+  <si>
+    <t>/msx/918098-godzilla-kun</t>
+  </si>
+  <si>
+    <t>/msx/918108-hero</t>
+  </si>
+  <si>
+    <t>/msx/941506-yami-no-ryu-ou-hades-no-monshou</t>
+  </si>
+  <si>
+    <t>/msx/918105-hanafuda-koikoi</t>
+  </si>
+  <si>
+    <t>/msx/918115-hudson-3d-golf</t>
+  </si>
+  <si>
+    <t>/msx/946657-iligks-episode-one-theseus</t>
+  </si>
+  <si>
+    <t>/msx/934887-legend-of-kage</t>
+  </si>
+  <si>
+    <t>/msx/951362-kinnikuman-colosseum-deathmatch</t>
+  </si>
+  <si>
+    <t>/tg16/588957-toshi-tensou-keikaku-eternal-city</t>
+  </si>
+  <si>
+    <t>/tg16/589020-lode-runner</t>
+  </si>
+  <si>
+    <t>/tg16/589019-liquid-kids</t>
+  </si>
+  <si>
+    <t>/tg16/578591-youyou-jinsei</t>
+  </si>
+  <si>
+    <t>/gba/928931-2-games-in-1-double-pack-finding-nemo-monsters-inc</t>
+  </si>
+  <si>
+    <t>/gba/563598-all-star-baseball-2004-featuring-derek-jeter</t>
+  </si>
+  <si>
+    <t>/gba/567613-asterix-and-obelix-paf-par-toutatis</t>
+  </si>
+  <si>
+    <t>/gba/924984-cinnamon-yume-no-daibouken</t>
+  </si>
+  <si>
+    <t>/gba/929831-cinnamoroll-fuwafuwa-daibouken</t>
+  </si>
+  <si>
+    <t>/gba/583078-cyber-drive-zoids-hatakedamono-no-senshi-hugh</t>
+  </si>
+  <si>
+    <t>/gba/926161-erementar-gerad-huuin-sarashi-kyou</t>
+  </si>
+  <si>
+    <t>/gba/933695-fifa-07-soccer</t>
+  </si>
+  <si>
+    <t>/gba/915384-dr-seuss-green-eggs-and-ham</t>
+  </si>
+  <si>
+    <t>/gba/563119-princess-blue-hime-kishi-monogatari</t>
+  </si>
+  <si>
+    <t>/gba/583062-ik/images/123915</t>
+  </si>
+  <si>
+    <t>/gba/925934-konchuu-ouja-mushiking-greatest-champion-e-no-michi</t>
+  </si>
+  <si>
+    <t>/gba/930704-rec-room-challenge</t>
+  </si>
+  <si>
+    <t>/gba/919366-pika-pika-nurse-monogatari</t>
+  </si>
+  <si>
+    <t>/gba/583162-santa-claus-junior</t>
+  </si>
+  <si>
+    <t>/gba/924403-shikakui-atama-o-maru-kusuru-advance-kanji-keisanhen</t>
+  </si>
+  <si>
+    <t>/gba/557325-spider-man-the-movie</t>
+  </si>
+  <si>
+    <t>/gba/939400-nicktoons-attack-of-the-toybots</t>
+  </si>
+  <si>
+    <t>/gba/472572-super-mario-world-super-mario-advance-2</t>
+  </si>
+  <si>
+    <t>/gba/917748-wan-nyan-doubutsu-byouin</t>
+  </si>
+  <si>
+    <t>/gbc/258281-asterix-auf-der-suche-nach-idefix</t>
+  </si>
+  <si>
+    <t>/gbc/451494-frogger-2-swampys-revenge</t>
+  </si>
+  <si>
+    <t>/gbc/577472-kinniku-banzuke-gb-2-mokushi-semassuru-champion</t>
+  </si>
+  <si>
+    <t>/gbc/997254-die-maus</t>
+  </si>
+  <si>
+    <t>/gbc/565876-nyr-new-york-race</t>
+  </si>
+  <si>
+    <t>/gbc/479183-batman-chaos-in-gotham</t>
+  </si>
+  <si>
+    <t>/gbc/579732-kaijin-zona</t>
+  </si>
+  <si>
+    <t>/gbc/576543-top-gear-pocket-2</t>
+  </si>
+  <si>
+    <t>/gbc/579031-tintin-prisoners-of-the-sun</t>
+  </si>
+  <si>
+    <t>/gbc/575900-tokimeki-memorial-pocket</t>
+  </si>
+  <si>
+    <t>/gbc/579829-yu-gi-oh-duel-monsters-4</t>
+  </si>
+  <si>
+    <t>/gbc/579829-yu-gi-oh-duel-monsters-5</t>
+  </si>
+  <si>
+    <t>/gbc/579829-yu-gi-oh-duel-monsters-6</t>
+  </si>
+  <si>
+    <t>/gbc/579828-doraemon-no-study-boy-gakushuu-kanji-game</t>
+  </si>
+  <si>
+    <t>/gbc/579827-doraemon-no-study-boy-kuku-game</t>
+  </si>
+  <si>
+    <t>/gameboy/585748-disneys-the-hunchback-of-notre-dame</t>
+  </si>
+  <si>
+    <t>/gameboy/585866-qbert</t>
+  </si>
+  <si>
+    <t>/gameboy/958383-tintin-le-temple-du-soleil</t>
+  </si>
+  <si>
+    <t>/n64/197462-goldeneye-007</t>
+  </si>
+  <si>
+    <t>/n64/577028-mia-hamm-64-soccer</t>
+  </si>
+  <si>
+    <t>/nes/587411-lempereur</t>
+  </si>
+  <si>
+    <t>/nes/579647-home-run-night-90-the-pennant-league</t>
+  </si>
+  <si>
+    <t>/nes/579419-home-run-nighter-pennant-league</t>
+  </si>
+  <si>
+    <t>/nes/579874-perman-enban-o-torikaese</t>
+  </si>
+  <si>
+    <t>/nes/578291-keisan-game-sansuu-1-nen</t>
+  </si>
+  <si>
+    <t>/nes/578292-keisan-game-sansuu-2-nen</t>
+  </si>
+  <si>
+    <t>/nes/578293-keisan-game-sansuu-3-nen</t>
+  </si>
+  <si>
+    <t>/nes/578321-keisan-game-sansuu-4-nen</t>
+  </si>
+  <si>
+    <t>/nes/578322-keisan-game-sansuu-56-nen</t>
+  </si>
+  <si>
+    <t>/nes/924880-tanigawa-kouji-no-shogi-shinan-ii-meijin-e-no-michi</t>
+  </si>
+  <si>
+    <t>/nes/579573-wizardry-ii-legacy-of-llylgamyn-the-third-scenario</t>
+  </si>
+  <si>
+    <t>/snes/571144-bike-daisuki-hashiriya-tamashii-riders-spirits</t>
+  </si>
+  <si>
+    <t>/snes/571232-classic-road-ii</t>
+  </si>
+  <si>
+    <t>/snes/588785-test-drive-ii-the-duel</t>
+  </si>
+  <si>
+    <t>/snes/580884-horai-gakuen-no-bouken</t>
+  </si>
+  <si>
+    <t>/snes/955239-jra-pat-wide-baken-taiyou</t>
+  </si>
+  <si>
+    <t>/snes/588277-der-langrisser</t>
+  </si>
+  <si>
+    <t>/snes/581813-light-fantasy-2</t>
+  </si>
+  <si>
+    <t>/snes/566299-cotton-100-marchen-adventure</t>
+  </si>
+  <si>
+    <t>/snes/562651-mahou-kishi-rayearth</t>
+  </si>
+  <si>
+    <t>/snes/580899-oozumou-tamashii</t>
+  </si>
+  <si>
+    <t>/snes/588589-prince-of-persia-2-the-shadow-and-the-flame</t>
+  </si>
+  <si>
+    <t>/snes/570906-nobunaga-kouki</t>
+  </si>
+  <si>
+    <t>/snes/571441-jikkyou-keiba-simulation-stable-star</t>
+  </si>
+  <si>
+    <t>/snes/581900-super-bonk-2</t>
+  </si>
+  <si>
+    <t>/snes/571483-wizardry-gaiden-iv-throb-of-the-demons-heart</t>
+  </si>
+  <si>
+    <t>/snes/571355-wizardry-vi-bane-of-the-cosmic-forge</t>
+  </si>
+  <si>
+    <t>/snes/571021-yokoyama-mitsuteru-san-goku-shi-ii</t>
+  </si>
+  <si>
+    <t>/ngpc/197296-fatal-fury-first-contact</t>
+  </si>
+  <si>
+    <t>/ngpc/916582-big-bang-pro-wrestling</t>
+  </si>
+  <si>
+    <t>/gamegear/586729-disneys-ariel-the-little-mermaid</t>
+  </si>
+  <si>
+    <t>/gamegear/581769-mahou-kishi-rayearth</t>
+  </si>
+  <si>
+    <t>/gamegear/570358-puyo-puyo-tsuu</t>
+  </si>
+  <si>
+    <t>/gamegear/586809-sonic-the-hedgehog-chaos</t>
+  </si>
+  <si>
+    <t>/sms/570279-the-smurfs-travel-the-world</t>
+  </si>
+  <si>
+    <t>/sms/563498-sonic-the-hedgehog-chaos</t>
+  </si>
+  <si>
+    <t>/genesis/586165-evander-real-deal-holyfields-boxing</t>
+  </si>
+  <si>
+    <t>/genesis/570396-puyo-puyo-2</t>
+  </si>
+  <si>
+    <t>/genesis/586313-mercs</t>
+  </si>
+  <si>
+    <t>/psp/932165-the-dog-happy-life</t>
+  </si>
+  <si>
+    <t>/psp/933133-formula-1-06</t>
+  </si>
+  <si>
+    <t>/psp/929590-puyo-puyo-fever-2</t>
+  </si>
+  <si>
+    <t>/psp/930686-blood-the-last-vampire</t>
+  </si>
+  <si>
+    <t>/psp/927384-double-cast</t>
+  </si>
+  <si>
+    <t>/psp/927385-kisetsu-o-dakishimete</t>
+  </si>
+  <si>
+    <t>/psp/927258-sampaguita</t>
+  </si>
+  <si>
+    <t>/psp/927386-yukiwari-no-hana</t>
+  </si>
+  <si>
+    <t>/psp/954359-enkaku-sousa-sana-e-no-23-hiai</t>
+  </si>
+  <si>
+    <t>/psp/932402-the-fast-and-the-furious</t>
+  </si>
+  <si>
+    <t>/psp/937909-final-fantasy</t>
+  </si>
+  <si>
+    <t>/psp/937910-final-fantasy-ii</t>
+  </si>
+  <si>
+    <t>/psp/960296-wwe-smackdown-vs-raw-2010</t>
+  </si>
+  <si>
+    <t>/psp/944774-world-neverland-2-in-1-portable</t>
+  </si>
+  <si>
+    <t>/psp/979292-kenka-banchou-4-ichinen-sensou</t>
+  </si>
+  <si>
+    <t>/psp/981262-koori-no-bohyou-ichiryuuwa-3-dome-no-junan</t>
+  </si>
+  <si>
+    <t>/psp/997247-lve-once</t>
+  </si>
+  <si>
+    <t>/psp/626031-mega-minis-volume-2</t>
+  </si>
+  <si>
+    <t>/psp/194696-battle-dodge-ball-3</t>
+  </si>
+  <si>
+    <t>/psp/634061-cars-2-the-video-game</t>
   </si>
 </sst>
 </file>
@@ -161,9 +572,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,27 +890,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,11 +941,8 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -553,12 +962,8 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="0">"DELETE FROM " &amp; B2 &amp; " WHERE " &amp; D2 &amp; " = " &amp; E2</f>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 14071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -578,12 +983,8 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -603,12 +1004,8 @@
       <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 1266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -628,12 +1025,8 @@
       <c r="J5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 1424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -653,12 +1046,8 @@
       <c r="J6" t="s">
         <v>7</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 1540</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -678,12 +1067,8 @@
       <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 1594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -703,12 +1088,8 @@
       <c r="J8" t="s">
         <v>7</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -728,12 +1109,8 @@
       <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 5519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -753,12 +1130,8 @@
       <c r="J10" t="s">
         <v>7</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -778,12 +1151,8 @@
       <c r="J11" t="s">
         <v>7</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -803,12 +1172,8 @@
       <c r="J12" t="s">
         <v>7</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -828,12 +1193,8 @@
       <c r="J13" t="s">
         <v>7</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -853,12 +1214,8 @@
       <c r="J14" t="s">
         <v>7</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -878,12 +1235,8 @@
       <c r="J15" t="s">
         <v>7</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -903,12 +1256,8 @@
       <c r="J16" t="s">
         <v>7</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 2599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -928,12 +1277,8 @@
       <c r="J17" t="s">
         <v>7</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 7494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -953,12 +1298,8 @@
       <c r="J18" t="s">
         <v>7</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 7837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -978,12 +1319,8 @@
       <c r="J19" t="s">
         <v>7</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 9639</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1003,12 +1340,8 @@
       <c r="J20" t="s">
         <v>7</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 10067</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1028,12 +1361,8 @@
       <c r="J21" t="s">
         <v>7</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 11465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1053,12 +1382,8 @@
       <c r="J22" t="s">
         <v>7</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 13968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1078,12 +1403,8 @@
       <c r="J23" t="s">
         <v>7</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 13737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1103,12 +1424,8 @@
       <c r="J24" t="s">
         <v>7</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 3729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1128,12 +1445,8 @@
       <c r="J25" t="s">
         <v>7</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 3660</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1153,12 +1466,8 @@
       <c r="J26" t="s">
         <v>7</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 4223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1178,12 +1487,8 @@
       <c r="J27" t="s">
         <v>7</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 7497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1203,12 +1508,8 @@
       <c r="J28" t="s">
         <v>7</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 7827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1228,12 +1529,8 @@
       <c r="J29" t="s">
         <v>7</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 8500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1253,12 +1550,8 @@
       <c r="J30" t="s">
         <v>7</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 9060</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1278,12 +1571,8 @@
       <c r="J31" t="s">
         <v>7</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 9401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1303,12 +1592,8 @@
       <c r="J32" t="s">
         <v>7</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 10463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1328,12 +1613,8 @@
       <c r="J33" t="s">
         <v>7</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 11632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1353,12 +1634,8 @@
       <c r="J34" t="s">
         <v>7</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" ref="K34:K38" si="1">"DELETE FROM " &amp; B34 &amp; " WHERE " &amp; D34 &amp; " = " &amp; E34</f>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 10802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -1378,12 +1655,8 @@
       <c r="J35" t="s">
         <v>7</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 13810</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1403,12 +1676,8 @@
       <c r="J36" t="s">
         <v>7</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 12614</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1428,12 +1697,8 @@
       <c r="J37" t="s">
         <v>7</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 13082</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1453,12 +1718,8 @@
       <c r="J38" t="s">
         <v>7</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="1"/>
-        <v>DELETE FROM tblSoftwareMap WHERE softwareId = 13083</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1489,12 +1750,8 @@
       <c r="J39" t="s">
         <v>21</v>
       </c>
-      <c r="K39" t="str">
-        <f>"UPDATE " &amp; B39 &amp; " SET " &amp; C39 &amp; " = (SELECT " &amp; G39 &amp; " FROM " &amp; F39 &amp; " WHERE " &amp; H39 &amp; " ='" &amp; I39 &amp; "') WHERE " &amp; D39 &amp; " = " &amp; E39</f>
-        <v>UPDATE tblSoftwareMap SET scraperGameId = (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL ='/snes/588189-aero-the-acro-bat') WHERE softwareId = 8313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1525,12 +1782,8 @@
       <c r="J40" t="s">
         <v>21</v>
       </c>
-      <c r="K40" t="str">
-        <f>"UPDATE " &amp; B40 &amp; " SET " &amp; C40 &amp; " = (SELECT " &amp; G40 &amp; " FROM " &amp; F40 &amp; " WHERE " &amp; H40 &amp; " ='" &amp; I40 &amp; "') WHERE " &amp; D40 &amp; " = " &amp; E40</f>
-        <v>UPDATE tblSoftwareMap SET scraperGameId = (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL ='/gba/920051-koinu-to-issho-2') WHERE softwareId = 3119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1555,12 +1808,8 @@
       <c r="J41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K41" t="str">
-        <f>"DELETE FROM " &amp; B41 &amp; " WHERE " &amp;D41 &amp; " IN (SELECT " &amp; G41 &amp; " FROM " &amp; F41 &amp; " WHERE " &amp; H41 &amp; " = '" &amp; I41 &amp; "')"</f>
-        <v>DELETE FROM tblSoftwareMap WHERE scraperGameId IN (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/msx/615986-s')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1585,12 +1834,8 @@
       <c r="J42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K42" t="str">
-        <f>"DELETE FROM " &amp; B42 &amp; " WHERE " &amp;D42 &amp; " IN (SELECT " &amp; G42 &amp; " FROM " &amp; F42 &amp; " WHERE " &amp; H42 &amp; " = '" &amp; I42 &amp; "')"</f>
-        <v>DELETE FROM tblSoftwareMap WHERE scraperGameId IN (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/psp/941433-n')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1615,12 +1860,8 @@
       <c r="J43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K43" t="str">
-        <f>"DELETE FROM " &amp; B43 &amp; " WHERE " &amp;D43 &amp; " IN (SELECT " &amp; G43 &amp; " FROM " &amp; F43 &amp; " WHERE " &amp; H43 &amp; " = '" &amp; I43 &amp; "')"</f>
-        <v>DELETE FROM tblSoftwareMap WHERE scraperGameId IN (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/gba/583062-ik')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1645,12 +1886,8 @@
       <c r="J44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K44" t="str">
-        <f>"DELETE FROM " &amp; B44 &amp; " WHERE " &amp;D44 &amp; " IN (SELECT " &amp; G44 &amp; " FROM " &amp; F44 &amp; " WHERE " &amp; H44 &amp; " = '" &amp; I44 &amp; "')"</f>
-        <v>DELETE FROM tblSoftwareMap WHERE scraperGameId IN (SELECT scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/psp/959273-up')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1663,8 +1900,8 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>29</v>
+      <c r="E45" s="2">
+        <v>13195</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1679,14 +1916,10 @@
         <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" t="str">
-        <f>"INSERT INTO " &amp; B45 &amp; " (" &amp; D45 &amp; "," &amp; C45 &amp; ") SELECT " &amp; E45 &amp; ", " &amp; G45 &amp; " FROM " &amp; F45 &amp; " WHERE " &amp; H45 &amp; " = '" &amp; I45 &amp; "'"</f>
-        <v>INSERT INTO tblSoftwareMap (softwareId,scraperGameId) SELECT 13195, scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/psp/941433-n'</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1932,8 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>31</v>
+      <c r="E46" s="2">
+        <v>13327</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1715,15 +1948,4512 @@
         <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
         <v>30</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" ref="K46" si="2">"INSERT INTO " &amp; B46 &amp; " (" &amp; D46 &amp; "," &amp; C46 &amp; ") SELECT " &amp; E46 &amp; ", " &amp; G46 &amp; " FROM " &amp; F46 &amp; " WHERE " &amp; H46 &amp; " = '" &amp; I46 &amp; "'"</f>
-        <v>INSERT INTO tblSoftwareMap (softwareId,scraperGameId) SELECT 13327, scraperGameId FROM tblScraperGames WHERE scraperGameURL = '/psp/959273-up'</v>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>323</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>325</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>460</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>772</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>779</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2">
+        <v>780</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2">
+        <v>781</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>782</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="2">
+        <v>809</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1015</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1041</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1042</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1047</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1071</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1078</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>47</v>
+      </c>
+      <c r="J63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>1091</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>1097</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>1100</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>1108</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s">
+        <v>52</v>
+      </c>
+      <c r="J68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>1122</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1123</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>1124</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>1142</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>1186</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>1266</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+      <c r="J74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>1342</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>1356</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>1357</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>61</v>
+      </c>
+      <c r="J77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>1358</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>62</v>
+      </c>
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>1378</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" t="s">
+        <v>63</v>
+      </c>
+      <c r="J79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>1394</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" t="s">
+        <v>64</v>
+      </c>
+      <c r="J80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>1413</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>1425</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>1802</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s">
+        <v>67</v>
+      </c>
+      <c r="J83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84">
+        <v>1871</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" t="s">
+        <v>68</v>
+      </c>
+      <c r="J84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>1885</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" t="s">
+        <v>69</v>
+      </c>
+      <c r="J85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>2027</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>2322</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s">
+        <v>71</v>
+      </c>
+      <c r="J87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>2393</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" t="s">
+        <v>72</v>
+      </c>
+      <c r="J88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>2417</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I89" t="s">
+        <v>73</v>
+      </c>
+      <c r="J89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>2574</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>2575</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" t="s">
+        <v>75</v>
+      </c>
+      <c r="J91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2598</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>2627</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s">
+        <v>76</v>
+      </c>
+      <c r="J93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>2756</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>2815</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>2943</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>3006</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>3038</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>3134</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>82</v>
+      </c>
+      <c r="J99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>3213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s">
+        <v>83</v>
+      </c>
+      <c r="J100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>3432</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I101" t="s">
+        <v>84</v>
+      </c>
+      <c r="J101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>3563</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" t="s">
+        <v>85</v>
+      </c>
+      <c r="J102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103">
+        <v>3598</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>3660</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" t="s">
+        <v>87</v>
+      </c>
+      <c r="J104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>3666</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>88</v>
+      </c>
+      <c r="J105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>3729</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" t="s">
+        <v>89</v>
+      </c>
+      <c r="J106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>3887</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>4013</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>91</v>
+      </c>
+      <c r="J108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>4223</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>92</v>
+      </c>
+      <c r="J109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>4379</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" t="s">
+        <v>93</v>
+      </c>
+      <c r="J110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>4460</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" t="s">
+        <v>94</v>
+      </c>
+      <c r="J111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>4527</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s">
+        <v>95</v>
+      </c>
+      <c r="J112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>4555</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s">
+        <v>96</v>
+      </c>
+      <c r="J113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>4592</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>97</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>4819</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" t="s">
+        <v>98</v>
+      </c>
+      <c r="J115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>4823</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>99</v>
+      </c>
+      <c r="J116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>4831</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>100</v>
+      </c>
+      <c r="J117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>4832</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>100</v>
+      </c>
+      <c r="J118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>4920</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" t="s">
+        <v>101</v>
+      </c>
+      <c r="J119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>4921</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>102</v>
+      </c>
+      <c r="J120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121">
+        <v>4922</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" t="s">
+        <v>103</v>
+      </c>
+      <c r="J121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122">
+        <v>5150</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>104</v>
+      </c>
+      <c r="J122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>5147</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s">
+        <v>105</v>
+      </c>
+      <c r="J123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124">
+        <v>5323</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>106</v>
+      </c>
+      <c r="J124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125">
+        <v>5712</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I125" t="s">
+        <v>107</v>
+      </c>
+      <c r="J125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>5900</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" t="s">
+        <v>108</v>
+      </c>
+      <c r="J126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>6009</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>109</v>
+      </c>
+      <c r="J127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>6208</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s">
+        <v>110</v>
+      </c>
+      <c r="J128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>6830</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>111</v>
+      </c>
+      <c r="J129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>7492</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s">
+        <v>112</v>
+      </c>
+      <c r="J130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>7491</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>113</v>
+      </c>
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>7494</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s">
+        <v>114</v>
+      </c>
+      <c r="J132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133">
+        <v>7633</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I133" t="s">
+        <v>115</v>
+      </c>
+      <c r="J133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>7634</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s">
+        <v>116</v>
+      </c>
+      <c r="J134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>7635</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I135" t="s">
+        <v>117</v>
+      </c>
+      <c r="J135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>7636</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s">
+        <v>118</v>
+      </c>
+      <c r="J136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137">
+        <v>7637</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I137" t="s">
+        <v>119</v>
+      </c>
+      <c r="J137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>7837</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s">
+        <v>120</v>
+      </c>
+      <c r="J138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>8000</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" t="s">
+        <v>121</v>
+      </c>
+      <c r="J139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>8415</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s">
+        <v>122</v>
+      </c>
+      <c r="J140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>8500</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" t="s">
+        <v>123</v>
+      </c>
+      <c r="J141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>8627</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I142" t="s">
+        <v>124</v>
+      </c>
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>8860</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I143" t="s">
+        <v>125</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>8946</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>126</v>
+      </c>
+      <c r="J144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>9039</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" t="s">
+        <v>127</v>
+      </c>
+      <c r="J145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>9060</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>128</v>
+      </c>
+      <c r="J146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>9087</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147" t="s">
+        <v>129</v>
+      </c>
+      <c r="J147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>9089</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>130</v>
+      </c>
+      <c r="J148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>9281</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149" t="s">
+        <v>131</v>
+      </c>
+      <c r="J149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>9401</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>132</v>
+      </c>
+      <c r="J150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>9538</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s">
+        <v>133</v>
+      </c>
+      <c r="J151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>9623</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>134</v>
+      </c>
+      <c r="J152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>9728</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>135</v>
+      </c>
+      <c r="J153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>10027</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>136</v>
+      </c>
+      <c r="J154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>10030</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I155" t="s">
+        <v>137</v>
+      </c>
+      <c r="J155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156">
+        <v>10067</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>138</v>
+      </c>
+      <c r="J156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157">
+        <v>12337</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" t="s">
+        <v>139</v>
+      </c>
+      <c r="J157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>12394</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" t="s">
+        <v>140</v>
+      </c>
+      <c r="J158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>10225</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>141</v>
+      </c>
+      <c r="J159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>10385</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" t="s">
+        <v>142</v>
+      </c>
+      <c r="J160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>10463</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" t="s">
+        <v>143</v>
+      </c>
+      <c r="J161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>10500</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" t="s">
+        <v>144</v>
+      </c>
+      <c r="J162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>10857</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" t="s">
+        <v>145</v>
+      </c>
+      <c r="J163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>3</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>10877</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" t="s">
+        <v>146</v>
+      </c>
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>11228</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" t="s">
+        <v>147</v>
+      </c>
+      <c r="J165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>11632</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" t="s">
+        <v>148</v>
+      </c>
+      <c r="J166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>11699</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" t="s">
+        <v>149</v>
+      </c>
+      <c r="J167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>12458</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I168" t="s">
+        <v>150</v>
+      </c>
+      <c r="J168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169">
+        <v>12482</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I169" t="s">
+        <v>151</v>
+      </c>
+      <c r="J169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170">
+        <v>12614</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" t="s">
+        <v>152</v>
+      </c>
+      <c r="J170" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="2">
+        <v>12701</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" t="s">
+        <v>153</v>
+      </c>
+      <c r="J171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" s="2">
+        <v>12702</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I172" t="s">
+        <v>154</v>
+      </c>
+      <c r="J172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="2">
+        <v>12703</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I173" t="s">
+        <v>155</v>
+      </c>
+      <c r="J173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="2">
+        <v>12704</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" t="s">
+        <v>156</v>
+      </c>
+      <c r="J174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="2">
+        <v>12705</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" t="s">
+        <v>157</v>
+      </c>
+      <c r="J175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>3</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="2">
+        <v>13071</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" t="s">
+        <v>158</v>
+      </c>
+      <c r="J176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="2">
+        <v>13077</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" t="s">
+        <v>159</v>
+      </c>
+      <c r="J177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="2">
+        <v>13082</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" t="s">
+        <v>160</v>
+      </c>
+      <c r="J178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" s="2">
+        <v>13083</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" t="s">
+        <v>161</v>
+      </c>
+      <c r="J179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" s="2">
+        <v>13344</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" t="s">
+        <v>162</v>
+      </c>
+      <c r="J180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="2">
+        <v>13342</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" t="s">
+        <v>163</v>
+      </c>
+      <c r="J181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" s="2">
+        <v>13529</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" t="s">
+        <v>164</v>
+      </c>
+      <c r="J182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="2">
+        <v>13537</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" t="s">
+        <v>165</v>
+      </c>
+      <c r="J183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" s="2">
+        <v>13550</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" t="s">
+        <v>166</v>
+      </c>
+      <c r="J184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="2">
+        <v>13572</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" t="s">
+        <v>167</v>
+      </c>
+      <c r="J185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="2">
+        <v>13798</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" t="s">
+        <v>168</v>
+      </c>
+      <c r="J186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="2">
+        <v>13810</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" t="s">
+        <v>169</v>
+      </c>
+      <c r="J187" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K46"/>
+  <autoFilter ref="A1:J46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/patches.xlsx
+++ b/patches.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$N$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$N$471</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4607" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="208">
   <si>
     <t>Action</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>SoftwareFlagMap</t>
+  </si>
+  <si>
+    <t>'/jaguar/918759-international-sensible-soccer'</t>
   </si>
 </sst>
 </file>
@@ -1001,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N470"/>
+  <dimension ref="A1:N471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1026,7 @@
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1066,7 +1069,7 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1739,7 +1742,7 @@
       <c r="M40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
       <c r="M41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1793,7 +1796,7 @@
       <c r="M42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1820,7 +1823,7 @@
       <c r="M43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1884,7 +1887,7 @@
       <c r="M45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1916,7 +1919,7 @@
       <c r="M46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1948,7 +1951,7 @@
       <c r="M47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1980,7 +1983,7 @@
       <c r="M48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2006,14 +2009,14 @@
       <c r="J49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K49">
-        <v>323</v>
+      <c r="K49" s="2">
+        <v>210</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N49" t="s">
-        <v>34</v>
+      <c r="N49" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,13 +2042,13 @@
         <v>202</v>
       </c>
       <c r="K50">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N50" t="s">
-        <v>35</v>
+      <c r="N50" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2071,13 +2074,13 @@
         <v>202</v>
       </c>
       <c r="K51">
-        <v>460</v>
+        <v>325</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N51" t="s">
-        <v>36</v>
+      <c r="N51" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2103,13 +2106,13 @@
         <v>202</v>
       </c>
       <c r="K52">
-        <v>772</v>
+        <v>460</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N52" t="s">
-        <v>37</v>
+      <c r="N52" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2135,13 +2138,13 @@
         <v>202</v>
       </c>
       <c r="K53">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N53" t="s">
-        <v>38</v>
+      <c r="N53" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2166,14 +2169,14 @@
       <c r="J54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K54" s="2">
-        <v>780</v>
+      <c r="K54">
+        <v>779</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N54" t="s">
-        <v>39</v>
+      <c r="N54" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2199,13 +2202,13 @@
         <v>202</v>
       </c>
       <c r="K55" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N55" t="s">
-        <v>40</v>
+      <c r="N55" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2231,13 +2234,13 @@
         <v>202</v>
       </c>
       <c r="K56" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N56" t="s">
-        <v>41</v>
+      <c r="N56" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -2263,13 +2266,13 @@
         <v>202</v>
       </c>
       <c r="K57" s="2">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N57" t="s">
-        <v>42</v>
+      <c r="N57" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -2295,13 +2298,13 @@
         <v>202</v>
       </c>
       <c r="K58" s="2">
-        <v>1000</v>
+        <v>809</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N58" t="s">
-        <v>43</v>
+      <c r="N58" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2327,13 +2330,13 @@
         <v>202</v>
       </c>
       <c r="K59" s="2">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N59" t="s">
-        <v>44</v>
+      <c r="N59" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -2359,13 +2362,13 @@
         <v>202</v>
       </c>
       <c r="K60" s="2">
-        <v>1041</v>
+        <v>1015</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N60" t="s">
-        <v>45</v>
+      <c r="N60" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -2391,13 +2394,13 @@
         <v>202</v>
       </c>
       <c r="K61" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N61" t="s">
-        <v>46</v>
+      <c r="N61" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -2423,13 +2426,13 @@
         <v>202</v>
       </c>
       <c r="K62" s="2">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N62" t="s">
-        <v>47</v>
+      <c r="N62" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -2455,13 +2458,13 @@
         <v>202</v>
       </c>
       <c r="K63" s="2">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N63" t="s">
-        <v>48</v>
+      <c r="N63" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -2487,13 +2490,13 @@
         <v>202</v>
       </c>
       <c r="K64" s="2">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N64" t="s">
-        <v>49</v>
+      <c r="N64" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -2518,14 +2521,14 @@
       <c r="J65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K65">
-        <v>1091</v>
+      <c r="K65" s="2">
+        <v>1078</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N65" t="s">
-        <v>50</v>
+      <c r="N65" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -2551,13 +2554,13 @@
         <v>202</v>
       </c>
       <c r="K66">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N66" t="s">
-        <v>51</v>
+      <c r="N66" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -2583,13 +2586,13 @@
         <v>202</v>
       </c>
       <c r="K67">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N67" t="s">
-        <v>52</v>
+      <c r="N67" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -2615,13 +2618,13 @@
         <v>202</v>
       </c>
       <c r="K68">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N68" t="s">
-        <v>53</v>
+      <c r="N68" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -2647,13 +2650,13 @@
         <v>202</v>
       </c>
       <c r="K69">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N69" t="s">
-        <v>54</v>
+      <c r="N69" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -2679,13 +2682,13 @@
         <v>202</v>
       </c>
       <c r="K70">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N70" t="s">
-        <v>55</v>
+      <c r="N70" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -2711,13 +2714,13 @@
         <v>202</v>
       </c>
       <c r="K71">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N71" t="s">
-        <v>56</v>
+      <c r="N71" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -2743,13 +2746,13 @@
         <v>202</v>
       </c>
       <c r="K72">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N72" t="s">
-        <v>57</v>
+      <c r="N72" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -2775,13 +2778,13 @@
         <v>202</v>
       </c>
       <c r="K73">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N73" t="s">
-        <v>58</v>
+      <c r="N73" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -2807,13 +2810,13 @@
         <v>202</v>
       </c>
       <c r="K74">
-        <v>1186</v>
+        <v>1142</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N74" t="s">
-        <v>59</v>
+      <c r="N74" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -2839,13 +2842,13 @@
         <v>202</v>
       </c>
       <c r="K75">
-        <v>1266</v>
+        <v>1186</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N75" t="s">
-        <v>60</v>
+      <c r="N75" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -2871,13 +2874,13 @@
         <v>202</v>
       </c>
       <c r="K76">
-        <v>1342</v>
+        <v>1266</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N76" t="s">
-        <v>61</v>
+      <c r="N76" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -2903,13 +2906,13 @@
         <v>202</v>
       </c>
       <c r="K77">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N77" t="s">
-        <v>62</v>
+      <c r="N77" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -2935,13 +2938,13 @@
         <v>202</v>
       </c>
       <c r="K78">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N78" t="s">
-        <v>63</v>
+      <c r="N78" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -2967,13 +2970,13 @@
         <v>202</v>
       </c>
       <c r="K79">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N79" t="s">
-        <v>64</v>
+      <c r="N79" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -2999,13 +3002,13 @@
         <v>202</v>
       </c>
       <c r="K80">
-        <v>1378</v>
+        <v>1358</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N80" t="s">
-        <v>65</v>
+      <c r="N80" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -3031,13 +3034,13 @@
         <v>202</v>
       </c>
       <c r="K81">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N81" t="s">
-        <v>66</v>
+      <c r="N81" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -3063,13 +3066,13 @@
         <v>202</v>
       </c>
       <c r="K82">
-        <v>1413</v>
+        <v>1394</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N82" t="s">
-        <v>67</v>
+      <c r="N82" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -3095,13 +3098,13 @@
         <v>202</v>
       </c>
       <c r="K83">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N83" t="s">
-        <v>68</v>
+      <c r="N83" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -3127,13 +3130,13 @@
         <v>202</v>
       </c>
       <c r="K84">
-        <v>1802</v>
+        <v>1425</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N84" t="s">
-        <v>69</v>
+      <c r="N84" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -3159,13 +3162,13 @@
         <v>202</v>
       </c>
       <c r="K85">
-        <v>1871</v>
+        <v>1802</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N85" t="s">
-        <v>70</v>
+      <c r="N85" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -3191,13 +3194,13 @@
         <v>202</v>
       </c>
       <c r="K86">
-        <v>1885</v>
+        <v>1871</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N86" t="s">
-        <v>71</v>
+      <c r="N86" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -3223,13 +3226,13 @@
         <v>202</v>
       </c>
       <c r="K87">
-        <v>2027</v>
+        <v>1885</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N87" t="s">
-        <v>72</v>
+      <c r="N87" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -3255,13 +3258,13 @@
         <v>202</v>
       </c>
       <c r="K88">
-        <v>2322</v>
+        <v>2027</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N88" t="s">
-        <v>73</v>
+      <c r="N88" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -3287,13 +3290,13 @@
         <v>202</v>
       </c>
       <c r="K89">
-        <v>2393</v>
+        <v>2322</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N89" t="s">
-        <v>74</v>
+      <c r="N89" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -3319,13 +3322,13 @@
         <v>202</v>
       </c>
       <c r="K90">
-        <v>2417</v>
+        <v>2393</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N90" t="s">
-        <v>75</v>
+      <c r="N90" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -3351,13 +3354,13 @@
         <v>202</v>
       </c>
       <c r="K91">
-        <v>2574</v>
+        <v>2417</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N91" t="s">
-        <v>76</v>
+      <c r="N91" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -3383,13 +3386,13 @@
         <v>202</v>
       </c>
       <c r="K92">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N92" t="s">
-        <v>77</v>
+      <c r="N92" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -3415,13 +3418,13 @@
         <v>202</v>
       </c>
       <c r="K93">
-        <v>2627</v>
+        <v>2575</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N93" t="s">
-        <v>78</v>
+      <c r="N93" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -3447,13 +3450,13 @@
         <v>202</v>
       </c>
       <c r="K94">
-        <v>2756</v>
+        <v>2627</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N94" t="s">
-        <v>79</v>
+      <c r="N94" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -3479,13 +3482,13 @@
         <v>202</v>
       </c>
       <c r="K95">
-        <v>2815</v>
+        <v>2756</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N95" t="s">
-        <v>80</v>
+      <c r="N95" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -3511,13 +3514,13 @@
         <v>202</v>
       </c>
       <c r="K96">
-        <v>2943</v>
+        <v>2815</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N96" t="s">
-        <v>81</v>
+      <c r="N96" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -3543,13 +3546,13 @@
         <v>202</v>
       </c>
       <c r="K97">
-        <v>3006</v>
+        <v>2943</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N97" t="s">
-        <v>82</v>
+      <c r="N97" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -3575,13 +3578,13 @@
         <v>202</v>
       </c>
       <c r="K98">
-        <v>3038</v>
+        <v>3006</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N98" t="s">
-        <v>83</v>
+      <c r="N98" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -3607,13 +3610,13 @@
         <v>202</v>
       </c>
       <c r="K99">
-        <v>3134</v>
+        <v>3038</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N99" t="s">
-        <v>84</v>
+      <c r="N99" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -3639,13 +3642,13 @@
         <v>202</v>
       </c>
       <c r="K100">
-        <v>3213</v>
+        <v>3134</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N100" t="s">
-        <v>85</v>
+      <c r="N100" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -3671,13 +3674,13 @@
         <v>202</v>
       </c>
       <c r="K101">
-        <v>3432</v>
+        <v>3213</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N101" t="s">
-        <v>86</v>
+      <c r="N101" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -3703,13 +3706,13 @@
         <v>202</v>
       </c>
       <c r="K102">
-        <v>3563</v>
+        <v>3432</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N102" t="s">
-        <v>87</v>
+      <c r="N102" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -3735,13 +3738,13 @@
         <v>202</v>
       </c>
       <c r="K103">
-        <v>3598</v>
+        <v>3563</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N103" t="s">
-        <v>88</v>
+      <c r="N103" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -3767,13 +3770,13 @@
         <v>202</v>
       </c>
       <c r="K104">
-        <v>3660</v>
+        <v>3598</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N104" t="s">
-        <v>89</v>
+      <c r="N104" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -3799,13 +3802,13 @@
         <v>202</v>
       </c>
       <c r="K105">
-        <v>3666</v>
+        <v>3660</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N105" t="s">
-        <v>90</v>
+      <c r="N105" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -3831,13 +3834,13 @@
         <v>202</v>
       </c>
       <c r="K106">
-        <v>3729</v>
+        <v>3666</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N106" t="s">
-        <v>91</v>
+      <c r="N106" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -3863,13 +3866,13 @@
         <v>202</v>
       </c>
       <c r="K107">
-        <v>3887</v>
+        <v>3729</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N107" t="s">
-        <v>92</v>
+      <c r="N107" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -3895,13 +3898,13 @@
         <v>202</v>
       </c>
       <c r="K108">
-        <v>4013</v>
+        <v>3887</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N108" t="s">
-        <v>93</v>
+      <c r="N108" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -3927,13 +3930,13 @@
         <v>202</v>
       </c>
       <c r="K109">
-        <v>4223</v>
+        <v>4013</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N109" t="s">
-        <v>94</v>
+      <c r="N109" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -3959,13 +3962,13 @@
         <v>202</v>
       </c>
       <c r="K110">
-        <v>4379</v>
+        <v>4223</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N110" t="s">
-        <v>95</v>
+      <c r="N110" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -3991,13 +3994,13 @@
         <v>202</v>
       </c>
       <c r="K111">
-        <v>4460</v>
+        <v>4379</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N111" t="s">
-        <v>96</v>
+      <c r="N111" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -4023,13 +4026,13 @@
         <v>202</v>
       </c>
       <c r="K112">
-        <v>4527</v>
+        <v>4460</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N112" t="s">
-        <v>97</v>
+      <c r="N112" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -4055,13 +4058,13 @@
         <v>202</v>
       </c>
       <c r="K113">
-        <v>4555</v>
+        <v>4527</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N113" t="s">
-        <v>98</v>
+      <c r="N113" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -4087,13 +4090,13 @@
         <v>202</v>
       </c>
       <c r="K114">
-        <v>4592</v>
+        <v>4555</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N114" t="s">
-        <v>99</v>
+      <c r="N114" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -4119,13 +4122,13 @@
         <v>202</v>
       </c>
       <c r="K115">
-        <v>4819</v>
+        <v>4592</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N115" t="s">
-        <v>100</v>
+      <c r="N115" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -4151,13 +4154,13 @@
         <v>202</v>
       </c>
       <c r="K116">
-        <v>4823</v>
+        <v>4819</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N116" t="s">
-        <v>101</v>
+      <c r="N116" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -4183,13 +4186,13 @@
         <v>202</v>
       </c>
       <c r="K117">
-        <v>4831</v>
+        <v>4823</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N117" t="s">
-        <v>102</v>
+      <c r="N117" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -4215,12 +4218,12 @@
         <v>202</v>
       </c>
       <c r="K118">
-        <v>4832</v>
+        <v>4831</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N118" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4247,13 +4250,13 @@
         <v>202</v>
       </c>
       <c r="K119">
-        <v>4920</v>
+        <v>4832</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N119" t="s">
-        <v>103</v>
+      <c r="N119" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -4279,13 +4282,13 @@
         <v>202</v>
       </c>
       <c r="K120">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N120" t="s">
-        <v>104</v>
+      <c r="N120" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -4311,13 +4314,13 @@
         <v>202</v>
       </c>
       <c r="K121">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N121" t="s">
-        <v>105</v>
+      <c r="N121" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -4343,13 +4346,13 @@
         <v>202</v>
       </c>
       <c r="K122">
-        <v>5150</v>
+        <v>4922</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N122" t="s">
-        <v>106</v>
+      <c r="N122" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -4375,13 +4378,13 @@
         <v>202</v>
       </c>
       <c r="K123">
-        <v>5147</v>
+        <v>5150</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N123" t="s">
-        <v>107</v>
+      <c r="N123" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -4407,13 +4410,13 @@
         <v>202</v>
       </c>
       <c r="K124">
-        <v>5323</v>
+        <v>5147</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N124" t="s">
-        <v>108</v>
+      <c r="N124" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -4439,13 +4442,13 @@
         <v>202</v>
       </c>
       <c r="K125">
-        <v>5712</v>
+        <v>5323</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N125" t="s">
-        <v>109</v>
+      <c r="N125" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -4471,13 +4474,13 @@
         <v>202</v>
       </c>
       <c r="K126">
-        <v>5900</v>
+        <v>5712</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N126" t="s">
-        <v>110</v>
+      <c r="N126" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -4503,13 +4506,13 @@
         <v>202</v>
       </c>
       <c r="K127">
-        <v>6009</v>
+        <v>5900</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N127" t="s">
-        <v>111</v>
+      <c r="N127" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -4535,13 +4538,13 @@
         <v>202</v>
       </c>
       <c r="K128">
-        <v>6208</v>
+        <v>6009</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N128" t="s">
-        <v>112</v>
+      <c r="N128" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -4567,13 +4570,13 @@
         <v>202</v>
       </c>
       <c r="K129">
-        <v>6830</v>
+        <v>6208</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N129" t="s">
-        <v>113</v>
+      <c r="N129" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -4599,13 +4602,13 @@
         <v>202</v>
       </c>
       <c r="K130">
-        <v>7492</v>
+        <v>6830</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N130" t="s">
-        <v>114</v>
+      <c r="N130" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -4631,13 +4634,13 @@
         <v>202</v>
       </c>
       <c r="K131">
-        <v>7491</v>
+        <v>7492</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N131" t="s">
-        <v>115</v>
+      <c r="N131" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -4663,13 +4666,13 @@
         <v>202</v>
       </c>
       <c r="K132">
-        <v>7494</v>
+        <v>7491</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N132" t="s">
-        <v>116</v>
+      <c r="N132" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -4695,13 +4698,13 @@
         <v>202</v>
       </c>
       <c r="K133">
-        <v>7633</v>
+        <v>7494</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N133" t="s">
-        <v>117</v>
+      <c r="N133" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -4727,13 +4730,13 @@
         <v>202</v>
       </c>
       <c r="K134">
-        <v>7634</v>
+        <v>7633</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N134" t="s">
-        <v>118</v>
+      <c r="N134" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -4759,13 +4762,13 @@
         <v>202</v>
       </c>
       <c r="K135">
-        <v>7635</v>
+        <v>7634</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N135" t="s">
-        <v>119</v>
+      <c r="N135" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -4791,13 +4794,13 @@
         <v>202</v>
       </c>
       <c r="K136">
-        <v>7636</v>
+        <v>7635</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N136" t="s">
-        <v>120</v>
+      <c r="N136" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -4823,13 +4826,13 @@
         <v>202</v>
       </c>
       <c r="K137">
-        <v>7637</v>
+        <v>7636</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N137" t="s">
-        <v>121</v>
+      <c r="N137" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -4855,13 +4858,13 @@
         <v>202</v>
       </c>
       <c r="K138">
-        <v>7837</v>
+        <v>7637</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N138" t="s">
-        <v>122</v>
+      <c r="N138" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -4887,13 +4890,13 @@
         <v>202</v>
       </c>
       <c r="K139">
-        <v>8000</v>
+        <v>7837</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N139" t="s">
-        <v>123</v>
+      <c r="N139" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -4919,13 +4922,13 @@
         <v>202</v>
       </c>
       <c r="K140">
-        <v>8415</v>
+        <v>8000</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N140" t="s">
-        <v>124</v>
+      <c r="N140" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -4951,13 +4954,13 @@
         <v>202</v>
       </c>
       <c r="K141">
-        <v>8500</v>
+        <v>8415</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N141" t="s">
-        <v>125</v>
+      <c r="N141" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -4983,13 +4986,13 @@
         <v>202</v>
       </c>
       <c r="K142">
-        <v>8627</v>
+        <v>8500</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N142" t="s">
-        <v>126</v>
+      <c r="N142" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -5015,13 +5018,13 @@
         <v>202</v>
       </c>
       <c r="K143">
-        <v>8860</v>
+        <v>8627</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N143" t="s">
-        <v>127</v>
+      <c r="N143" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -5047,13 +5050,13 @@
         <v>202</v>
       </c>
       <c r="K144">
-        <v>8946</v>
+        <v>8860</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N144" t="s">
-        <v>128</v>
+      <c r="N144" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -5079,13 +5082,13 @@
         <v>202</v>
       </c>
       <c r="K145">
-        <v>9039</v>
+        <v>8946</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N145" t="s">
-        <v>129</v>
+      <c r="N145" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -5111,13 +5114,13 @@
         <v>202</v>
       </c>
       <c r="K146">
-        <v>9060</v>
+        <v>9039</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N146" t="s">
-        <v>130</v>
+      <c r="N146" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -5143,13 +5146,13 @@
         <v>202</v>
       </c>
       <c r="K147">
-        <v>9087</v>
+        <v>9060</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N147" t="s">
-        <v>131</v>
+      <c r="N147" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -5175,13 +5178,13 @@
         <v>202</v>
       </c>
       <c r="K148">
-        <v>9089</v>
+        <v>9087</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N148" t="s">
-        <v>132</v>
+      <c r="N148" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -5207,13 +5210,13 @@
         <v>202</v>
       </c>
       <c r="K149">
-        <v>9281</v>
+        <v>9089</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N149" t="s">
-        <v>133</v>
+      <c r="N149" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -5239,13 +5242,13 @@
         <v>202</v>
       </c>
       <c r="K150">
-        <v>9401</v>
+        <v>9281</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N150" t="s">
-        <v>134</v>
+      <c r="N150" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -5271,13 +5274,13 @@
         <v>202</v>
       </c>
       <c r="K151">
-        <v>9538</v>
+        <v>9401</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N151" t="s">
-        <v>135</v>
+      <c r="N151" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -5303,13 +5306,13 @@
         <v>202</v>
       </c>
       <c r="K152">
-        <v>9623</v>
+        <v>9538</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N152" t="s">
-        <v>136</v>
+      <c r="N152" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -5335,13 +5338,13 @@
         <v>202</v>
       </c>
       <c r="K153">
-        <v>9728</v>
+        <v>9623</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N153" t="s">
-        <v>137</v>
+      <c r="N153" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -5367,13 +5370,13 @@
         <v>202</v>
       </c>
       <c r="K154">
-        <v>10027</v>
+        <v>9728</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N154" t="s">
-        <v>138</v>
+      <c r="N154" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -5399,13 +5402,13 @@
         <v>202</v>
       </c>
       <c r="K155">
-        <v>10030</v>
+        <v>10027</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N155" t="s">
-        <v>139</v>
+      <c r="N155" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -5431,13 +5434,13 @@
         <v>202</v>
       </c>
       <c r="K156">
-        <v>10067</v>
+        <v>10030</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N156" t="s">
-        <v>140</v>
+      <c r="N156" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -5463,13 +5466,13 @@
         <v>202</v>
       </c>
       <c r="K157">
-        <v>12337</v>
+        <v>10067</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N157" t="s">
-        <v>141</v>
+      <c r="N157" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -5495,13 +5498,13 @@
         <v>202</v>
       </c>
       <c r="K158">
-        <v>12394</v>
+        <v>12337</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N158" t="s">
-        <v>142</v>
+      <c r="N158" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -5527,13 +5530,13 @@
         <v>202</v>
       </c>
       <c r="K159">
-        <v>10225</v>
+        <v>12394</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N159" t="s">
-        <v>143</v>
+      <c r="N159" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -5559,13 +5562,13 @@
         <v>202</v>
       </c>
       <c r="K160">
-        <v>10385</v>
+        <v>10225</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N160" t="s">
-        <v>144</v>
+      <c r="N160" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -5591,13 +5594,13 @@
         <v>202</v>
       </c>
       <c r="K161">
-        <v>10463</v>
+        <v>10385</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N161" t="s">
-        <v>145</v>
+      <c r="N161" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -5623,13 +5626,13 @@
         <v>202</v>
       </c>
       <c r="K162">
-        <v>10500</v>
+        <v>10463</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N162" t="s">
-        <v>146</v>
+      <c r="N162" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -5655,13 +5658,13 @@
         <v>202</v>
       </c>
       <c r="K163">
-        <v>10857</v>
+        <v>10500</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N163" t="s">
-        <v>147</v>
+      <c r="N163" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -5687,13 +5690,13 @@
         <v>202</v>
       </c>
       <c r="K164">
-        <v>10877</v>
+        <v>10857</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N164" t="s">
-        <v>148</v>
+      <c r="N164" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -5719,13 +5722,13 @@
         <v>202</v>
       </c>
       <c r="K165">
-        <v>11228</v>
+        <v>10877</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N165" t="s">
-        <v>149</v>
+      <c r="N165" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -5751,13 +5754,13 @@
         <v>202</v>
       </c>
       <c r="K166">
-        <v>11632</v>
+        <v>11228</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N166" t="s">
-        <v>150</v>
+      <c r="N166" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -5783,13 +5786,13 @@
         <v>202</v>
       </c>
       <c r="K167">
-        <v>11699</v>
+        <v>11632</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N167" t="s">
-        <v>151</v>
+      <c r="N167" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -5815,13 +5818,13 @@
         <v>202</v>
       </c>
       <c r="K168">
-        <v>12458</v>
+        <v>11699</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N168" t="s">
-        <v>152</v>
+      <c r="N168" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -5847,13 +5850,13 @@
         <v>202</v>
       </c>
       <c r="K169">
-        <v>12482</v>
+        <v>12458</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N169" t="s">
-        <v>153</v>
+      <c r="N169" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -5879,13 +5882,13 @@
         <v>202</v>
       </c>
       <c r="K170">
-        <v>12614</v>
+        <v>12482</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N170" t="s">
-        <v>154</v>
+      <c r="N170" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -5910,14 +5913,14 @@
       <c r="J171" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K171" s="2">
-        <v>12701</v>
+      <c r="K171">
+        <v>12614</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N171" t="s">
-        <v>155</v>
+      <c r="N171" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -5943,13 +5946,13 @@
         <v>202</v>
       </c>
       <c r="K172" s="2">
-        <v>12702</v>
+        <v>12701</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N172" t="s">
-        <v>156</v>
+      <c r="N172" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -5975,13 +5978,13 @@
         <v>202</v>
       </c>
       <c r="K173" s="2">
-        <v>12703</v>
+        <v>12702</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N173" t="s">
-        <v>157</v>
+      <c r="N173" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -6007,13 +6010,13 @@
         <v>202</v>
       </c>
       <c r="K174" s="2">
-        <v>12704</v>
+        <v>12703</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N174" t="s">
-        <v>158</v>
+      <c r="N174" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -6039,13 +6042,13 @@
         <v>202</v>
       </c>
       <c r="K175" s="2">
-        <v>12705</v>
+        <v>12704</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N175" t="s">
-        <v>159</v>
+      <c r="N175" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -6071,13 +6074,13 @@
         <v>202</v>
       </c>
       <c r="K176" s="2">
-        <v>13071</v>
+        <v>12705</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N176" t="s">
-        <v>160</v>
+      <c r="N176" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -6103,13 +6106,13 @@
         <v>202</v>
       </c>
       <c r="K177" s="2">
-        <v>13077</v>
+        <v>13071</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N177" t="s">
-        <v>161</v>
+      <c r="N177" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -6135,13 +6138,13 @@
         <v>202</v>
       </c>
       <c r="K178" s="2">
-        <v>13082</v>
+        <v>13077</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N178" t="s">
-        <v>162</v>
+      <c r="N178" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -6167,13 +6170,13 @@
         <v>202</v>
       </c>
       <c r="K179" s="2">
-        <v>13083</v>
+        <v>13082</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N179" t="s">
-        <v>163</v>
+      <c r="N179" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -6199,13 +6202,13 @@
         <v>202</v>
       </c>
       <c r="K180" s="2">
-        <v>13344</v>
+        <v>13083</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N180" t="s">
-        <v>164</v>
+      <c r="N180" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -6231,13 +6234,13 @@
         <v>202</v>
       </c>
       <c r="K181" s="2">
-        <v>13342</v>
+        <v>13344</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N181" t="s">
-        <v>165</v>
+      <c r="N181" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -6263,13 +6266,13 @@
         <v>202</v>
       </c>
       <c r="K182" s="2">
-        <v>13529</v>
+        <v>13342</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N182" t="s">
-        <v>166</v>
+      <c r="N182" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -6295,13 +6298,13 @@
         <v>202</v>
       </c>
       <c r="K183" s="2">
-        <v>13537</v>
+        <v>13529</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N183" t="s">
-        <v>167</v>
+      <c r="N183" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -6327,13 +6330,13 @@
         <v>202</v>
       </c>
       <c r="K184" s="2">
-        <v>13550</v>
+        <v>13537</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N184" t="s">
-        <v>168</v>
+      <c r="N184" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,13 +6362,13 @@
         <v>202</v>
       </c>
       <c r="K185" s="2">
-        <v>13572</v>
+        <v>13550</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N185" t="s">
-        <v>169</v>
+      <c r="N185" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -6391,13 +6394,13 @@
         <v>202</v>
       </c>
       <c r="K186" s="2">
-        <v>13798</v>
+        <v>13572</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N186" t="s">
-        <v>170</v>
+      <c r="N186" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -6423,51 +6426,45 @@
         <v>202</v>
       </c>
       <c r="K187" s="2">
-        <v>13810</v>
+        <v>13798</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N187" t="s">
-        <v>171</v>
+      <c r="N187" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
-        <v>23</v>
-      </c>
-      <c r="F188" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>24</v>
-      </c>
-      <c r="J188">
-        <v>25</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L188" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K188" s="2">
+        <v>13810</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -6493,13 +6490,13 @@
         <v>24</v>
       </c>
       <c r="J189">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>22</v>
@@ -6531,13 +6528,13 @@
         <v>24</v>
       </c>
       <c r="J190">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>22</v>
@@ -6569,13 +6566,13 @@
         <v>24</v>
       </c>
       <c r="J191">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L191" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>22</v>
@@ -6607,13 +6604,13 @@
         <v>24</v>
       </c>
       <c r="J192">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L192" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>22</v>
@@ -6683,13 +6680,13 @@
         <v>24</v>
       </c>
       <c r="J194">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L194" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>22</v>
@@ -6759,13 +6756,13 @@
         <v>24</v>
       </c>
       <c r="J196">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L196" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>22</v>
@@ -6835,13 +6832,13 @@
         <v>24</v>
       </c>
       <c r="J198">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L198" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>22</v>
@@ -6873,13 +6870,13 @@
         <v>24</v>
       </c>
       <c r="J199">
-        <v>623</v>
+        <v>333</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L199" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>22</v>
@@ -6911,13 +6908,13 @@
         <v>24</v>
       </c>
       <c r="J200">
-        <v>987</v>
+        <v>623</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L200" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>22</v>
@@ -6987,13 +6984,13 @@
         <v>24</v>
       </c>
       <c r="J202">
-        <v>1748</v>
+        <v>987</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L202" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>22</v>
@@ -7101,13 +7098,13 @@
         <v>24</v>
       </c>
       <c r="J205">
-        <v>2187</v>
+        <v>1748</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L205" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>22</v>
@@ -7177,13 +7174,13 @@
         <v>24</v>
       </c>
       <c r="J207">
-        <v>2824</v>
+        <v>2187</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L207" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>22</v>
@@ -7291,13 +7288,13 @@
         <v>24</v>
       </c>
       <c r="J210">
-        <v>2886</v>
+        <v>2824</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L210" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>22</v>
@@ -7329,7 +7326,7 @@
         <v>24</v>
       </c>
       <c r="J211">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>203</v>
@@ -7367,7 +7364,7 @@
         <v>24</v>
       </c>
       <c r="J212">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>203</v>
@@ -7405,7 +7402,7 @@
         <v>24</v>
       </c>
       <c r="J213">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>203</v>
@@ -7443,13 +7440,13 @@
         <v>24</v>
       </c>
       <c r="J214">
-        <v>3338</v>
+        <v>2889</v>
       </c>
       <c r="K214" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L214" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>22</v>
@@ -7519,13 +7516,13 @@
         <v>24</v>
       </c>
       <c r="J216">
-        <v>3462</v>
+        <v>3338</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L216" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>22</v>
@@ -7671,13 +7668,13 @@
         <v>24</v>
       </c>
       <c r="J220">
-        <v>4069</v>
+        <v>3462</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L220" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>22</v>
@@ -7709,13 +7706,13 @@
         <v>24</v>
       </c>
       <c r="J221">
-        <v>4404</v>
+        <v>4069</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>22</v>
@@ -8089,13 +8086,13 @@
         <v>24</v>
       </c>
       <c r="J231">
-        <v>4817</v>
+        <v>4404</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L231" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>22</v>
@@ -8127,13 +8124,13 @@
         <v>24</v>
       </c>
       <c r="J232">
-        <v>5194</v>
+        <v>4817</v>
       </c>
       <c r="K232" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L232" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>22</v>
@@ -8165,13 +8162,13 @@
         <v>24</v>
       </c>
       <c r="J233">
-        <v>5198</v>
+        <v>5194</v>
       </c>
       <c r="K233" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L233" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>22</v>
@@ -8203,13 +8200,13 @@
         <v>24</v>
       </c>
       <c r="J234">
-        <v>5466</v>
+        <v>5198</v>
       </c>
       <c r="K234" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L234" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>22</v>
@@ -8279,13 +8276,13 @@
         <v>24</v>
       </c>
       <c r="J236">
-        <v>5482</v>
+        <v>5466</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L236" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>22</v>
@@ -8393,7 +8390,7 @@
         <v>24</v>
       </c>
       <c r="J239">
-        <v>5483</v>
+        <v>5482</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>203</v>
@@ -8507,7 +8504,7 @@
         <v>24</v>
       </c>
       <c r="J242">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>203</v>
@@ -8621,7 +8618,7 @@
         <v>24</v>
       </c>
       <c r="J245">
-        <v>5485</v>
+        <v>5484</v>
       </c>
       <c r="K245" s="1" t="s">
         <v>203</v>
@@ -8735,13 +8732,13 @@
         <v>24</v>
       </c>
       <c r="J248">
-        <v>5534</v>
+        <v>5485</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L248" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>22</v>
@@ -8811,7 +8808,7 @@
         <v>24</v>
       </c>
       <c r="J250">
-        <v>5535</v>
+        <v>5534</v>
       </c>
       <c r="K250" s="1" t="s">
         <v>203</v>
@@ -8887,13 +8884,13 @@
         <v>24</v>
       </c>
       <c r="J252">
-        <v>5790</v>
+        <v>5535</v>
       </c>
       <c r="K252" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L252" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>22</v>
@@ -8925,13 +8922,13 @@
         <v>24</v>
       </c>
       <c r="J253">
-        <v>5835</v>
+        <v>5790</v>
       </c>
       <c r="K253" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L253" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>22</v>
@@ -9001,13 +8998,13 @@
         <v>24</v>
       </c>
       <c r="J255">
-        <v>5838</v>
+        <v>5835</v>
       </c>
       <c r="K255" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L255" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>22</v>
@@ -9115,13 +9112,13 @@
         <v>24</v>
       </c>
       <c r="J258">
-        <v>5855</v>
+        <v>5838</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L258" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>22</v>
@@ -9191,7 +9188,7 @@
         <v>24</v>
       </c>
       <c r="J260">
-        <v>5856</v>
+        <v>5855</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>203</v>
@@ -9419,13 +9416,13 @@
         <v>24</v>
       </c>
       <c r="J266">
-        <v>5959</v>
+        <v>5856</v>
       </c>
       <c r="K266" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L266" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>22</v>
@@ -9457,13 +9454,13 @@
         <v>24</v>
       </c>
       <c r="J267">
-        <v>6009</v>
+        <v>5959</v>
       </c>
       <c r="K267" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L267" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>22</v>
@@ -9571,13 +9568,13 @@
         <v>24</v>
       </c>
       <c r="J270">
-        <v>6202</v>
+        <v>6009</v>
       </c>
       <c r="K270" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L270" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>22</v>
@@ -9609,13 +9606,13 @@
         <v>24</v>
       </c>
       <c r="J271">
-        <v>6334</v>
+        <v>6202</v>
       </c>
       <c r="K271" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L271" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>22</v>
@@ -9685,13 +9682,13 @@
         <v>24</v>
       </c>
       <c r="J273">
-        <v>6724</v>
+        <v>6334</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L273" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>22</v>
@@ -9723,13 +9720,13 @@
         <v>24</v>
       </c>
       <c r="J274">
-        <v>6726</v>
+        <v>6724</v>
       </c>
       <c r="K274" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L274" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>22</v>
@@ -9761,13 +9758,13 @@
         <v>24</v>
       </c>
       <c r="J275">
-        <v>6893</v>
+        <v>6726</v>
       </c>
       <c r="K275" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L275" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>22</v>
@@ -9837,13 +9834,13 @@
         <v>24</v>
       </c>
       <c r="J277">
-        <v>7299</v>
+        <v>6893</v>
       </c>
       <c r="K277" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L277" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>22</v>
@@ -9875,13 +9872,13 @@
         <v>24</v>
       </c>
       <c r="J278">
-        <v>7702</v>
+        <v>7299</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L278" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>22</v>
@@ -9989,13 +9986,13 @@
         <v>24</v>
       </c>
       <c r="J281">
-        <v>7756</v>
+        <v>7702</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L281" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>22</v>
@@ -10141,13 +10138,13 @@
         <v>24</v>
       </c>
       <c r="J285">
-        <v>7793</v>
+        <v>7756</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L285" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>22</v>
@@ -10217,7 +10214,7 @@
         <v>24</v>
       </c>
       <c r="J287">
-        <v>7794</v>
+        <v>7793</v>
       </c>
       <c r="K287" s="1" t="s">
         <v>203</v>
@@ -10293,7 +10290,7 @@
         <v>24</v>
       </c>
       <c r="J289">
-        <v>7795</v>
+        <v>7794</v>
       </c>
       <c r="K289" s="1" t="s">
         <v>203</v>
@@ -10369,7 +10366,7 @@
         <v>24</v>
       </c>
       <c r="J291">
-        <v>7796</v>
+        <v>7795</v>
       </c>
       <c r="K291" s="1" t="s">
         <v>203</v>
@@ -10445,7 +10442,7 @@
         <v>24</v>
       </c>
       <c r="J293">
-        <v>7798</v>
+        <v>7796</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>203</v>
@@ -10673,13 +10670,13 @@
         <v>24</v>
       </c>
       <c r="J299">
-        <v>7888</v>
+        <v>7798</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L299" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>22</v>
@@ -10787,7 +10784,7 @@
         <v>24</v>
       </c>
       <c r="J302">
-        <v>7889</v>
+        <v>7888</v>
       </c>
       <c r="K302" s="1" t="s">
         <v>203</v>
@@ -10863,13 +10860,13 @@
         <v>24</v>
       </c>
       <c r="J304">
-        <v>7977</v>
+        <v>7889</v>
       </c>
       <c r="K304" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L304" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>22</v>
@@ -10977,13 +10974,13 @@
         <v>24</v>
       </c>
       <c r="J307">
-        <v>8049</v>
+        <v>7977</v>
       </c>
       <c r="K307" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L307" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>22</v>
@@ -11015,7 +11012,7 @@
         <v>24</v>
       </c>
       <c r="J308">
-        <v>8054</v>
+        <v>8049</v>
       </c>
       <c r="K308" s="1" t="s">
         <v>203</v>
@@ -11129,7 +11126,7 @@
         <v>24</v>
       </c>
       <c r="J311">
-        <v>8055</v>
+        <v>8054</v>
       </c>
       <c r="K311" s="1" t="s">
         <v>203</v>
@@ -11243,7 +11240,7 @@
         <v>24</v>
       </c>
       <c r="J314">
-        <v>8056</v>
+        <v>8055</v>
       </c>
       <c r="K314" s="1" t="s">
         <v>203</v>
@@ -11281,7 +11278,7 @@
         <v>24</v>
       </c>
       <c r="J315">
-        <v>8057</v>
+        <v>8056</v>
       </c>
       <c r="K315" s="1" t="s">
         <v>203</v>
@@ -11357,7 +11354,7 @@
         <v>24</v>
       </c>
       <c r="J317">
-        <v>8058</v>
+        <v>8057</v>
       </c>
       <c r="K317" s="1" t="s">
         <v>203</v>
@@ -11433,7 +11430,7 @@
         <v>24</v>
       </c>
       <c r="J319">
-        <v>8059</v>
+        <v>8058</v>
       </c>
       <c r="K319" s="1" t="s">
         <v>203</v>
@@ -11471,7 +11468,7 @@
         <v>24</v>
       </c>
       <c r="J320">
-        <v>8060</v>
+        <v>8059</v>
       </c>
       <c r="K320" s="1" t="s">
         <v>203</v>
@@ -11623,7 +11620,7 @@
         <v>24</v>
       </c>
       <c r="J324">
-        <v>8061</v>
+        <v>8060</v>
       </c>
       <c r="K324" s="1" t="s">
         <v>203</v>
@@ -11927,7 +11924,7 @@
         <v>24</v>
       </c>
       <c r="J332">
-        <v>8062</v>
+        <v>8061</v>
       </c>
       <c r="K332" s="1" t="s">
         <v>203</v>
@@ -11965,7 +11962,7 @@
         <v>24</v>
       </c>
       <c r="J333">
-        <v>8063</v>
+        <v>8062</v>
       </c>
       <c r="K333" s="1" t="s">
         <v>203</v>
@@ -12041,7 +12038,7 @@
         <v>24</v>
       </c>
       <c r="J335">
-        <v>8064</v>
+        <v>8063</v>
       </c>
       <c r="K335" s="1" t="s">
         <v>203</v>
@@ -12079,7 +12076,7 @@
         <v>24</v>
       </c>
       <c r="J336">
-        <v>8065</v>
+        <v>8064</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>203</v>
@@ -12155,7 +12152,7 @@
         <v>24</v>
       </c>
       <c r="J338">
-        <v>8066</v>
+        <v>8065</v>
       </c>
       <c r="K338" s="1" t="s">
         <v>203</v>
@@ -12307,13 +12304,13 @@
         <v>24</v>
       </c>
       <c r="J342">
-        <v>8112</v>
+        <v>8066</v>
       </c>
       <c r="K342" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L342" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M342" s="1" t="s">
         <v>22</v>
@@ -12345,7 +12342,7 @@
         <v>24</v>
       </c>
       <c r="J343">
-        <v>8113</v>
+        <v>8112</v>
       </c>
       <c r="K343" s="1" t="s">
         <v>203</v>
@@ -12383,7 +12380,7 @@
         <v>24</v>
       </c>
       <c r="J344">
-        <v>8114</v>
+        <v>8113</v>
       </c>
       <c r="K344" s="1" t="s">
         <v>203</v>
@@ -12421,7 +12418,7 @@
         <v>24</v>
       </c>
       <c r="J345">
-        <v>8115</v>
+        <v>8114</v>
       </c>
       <c r="K345" s="1" t="s">
         <v>203</v>
@@ -12459,7 +12456,7 @@
         <v>24</v>
       </c>
       <c r="J346">
-        <v>8116</v>
+        <v>8115</v>
       </c>
       <c r="K346" s="1" t="s">
         <v>203</v>
@@ -12497,13 +12494,13 @@
         <v>24</v>
       </c>
       <c r="J347">
-        <v>8255</v>
+        <v>8116</v>
       </c>
       <c r="K347" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L347" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="M347" s="1" t="s">
         <v>22</v>
@@ -12535,13 +12532,13 @@
         <v>24</v>
       </c>
       <c r="J348">
-        <v>8481</v>
+        <v>8255</v>
       </c>
       <c r="K348" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L348" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M348" s="1" t="s">
         <v>22</v>
@@ -12649,13 +12646,13 @@
         <v>24</v>
       </c>
       <c r="J351">
-        <v>8678</v>
+        <v>8481</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L351" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M351" s="1" t="s">
         <v>22</v>
@@ -12801,7 +12798,7 @@
         <v>24</v>
       </c>
       <c r="J355">
-        <v>8679</v>
+        <v>8678</v>
       </c>
       <c r="K355" s="1" t="s">
         <v>203</v>
@@ -12953,13 +12950,13 @@
         <v>24</v>
       </c>
       <c r="J359">
-        <v>8684</v>
+        <v>8679</v>
       </c>
       <c r="K359" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L359" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M359" s="1" t="s">
         <v>22</v>
@@ -13029,13 +13026,13 @@
         <v>24</v>
       </c>
       <c r="J361">
-        <v>8691</v>
+        <v>8684</v>
       </c>
       <c r="K361" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L361" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M361" s="1" t="s">
         <v>22</v>
@@ -13067,13 +13064,13 @@
         <v>24</v>
       </c>
       <c r="J362">
-        <v>9114</v>
+        <v>8691</v>
       </c>
       <c r="K362" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L362" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M362" s="1" t="s">
         <v>22</v>
@@ -13219,7 +13216,7 @@
         <v>24</v>
       </c>
       <c r="J366">
-        <v>9121</v>
+        <v>9114</v>
       </c>
       <c r="K366" s="1" t="s">
         <v>203</v>
@@ -13333,13 +13330,13 @@
         <v>24</v>
       </c>
       <c r="J369">
-        <v>9139</v>
+        <v>9121</v>
       </c>
       <c r="K369" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L369" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M369" s="1" t="s">
         <v>22</v>
@@ -13485,7 +13482,7 @@
         <v>24</v>
       </c>
       <c r="J373">
-        <v>9140</v>
+        <v>9139</v>
       </c>
       <c r="K373" s="1" t="s">
         <v>203</v>
@@ -13561,7 +13558,7 @@
         <v>24</v>
       </c>
       <c r="J375">
-        <v>9141</v>
+        <v>9140</v>
       </c>
       <c r="K375" s="1" t="s">
         <v>203</v>
@@ -13605,7 +13602,7 @@
         <v>203</v>
       </c>
       <c r="L376" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M376" s="1" t="s">
         <v>22</v>
@@ -13751,7 +13748,7 @@
         <v>24</v>
       </c>
       <c r="J380">
-        <v>9142</v>
+        <v>9141</v>
       </c>
       <c r="K380" s="1" t="s">
         <v>203</v>
@@ -13865,7 +13862,7 @@
         <v>24</v>
       </c>
       <c r="J383">
-        <v>9143</v>
+        <v>9142</v>
       </c>
       <c r="K383" s="1" t="s">
         <v>203</v>
@@ -13979,13 +13976,13 @@
         <v>24</v>
       </c>
       <c r="J386">
-        <v>9298</v>
+        <v>9143</v>
       </c>
       <c r="K386" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L386" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M386" s="1" t="s">
         <v>22</v>
@@ -14169,13 +14166,13 @@
         <v>24</v>
       </c>
       <c r="J391">
-        <v>9373</v>
+        <v>9298</v>
       </c>
       <c r="K391" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L391" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M391" s="1" t="s">
         <v>22</v>
@@ -14207,13 +14204,13 @@
         <v>24</v>
       </c>
       <c r="J392">
-        <v>9394</v>
+        <v>9373</v>
       </c>
       <c r="K392" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L392" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M392" s="1" t="s">
         <v>22</v>
@@ -14245,7 +14242,7 @@
         <v>24</v>
       </c>
       <c r="J393">
-        <v>9395</v>
+        <v>9394</v>
       </c>
       <c r="K393" s="1" t="s">
         <v>203</v>
@@ -14283,13 +14280,13 @@
         <v>24</v>
       </c>
       <c r="J394">
-        <v>9639</v>
+        <v>9395</v>
       </c>
       <c r="K394" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L394" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M394" s="1" t="s">
         <v>22</v>
@@ -14321,7 +14318,7 @@
         <v>24</v>
       </c>
       <c r="J395">
-        <v>9640</v>
+        <v>9639</v>
       </c>
       <c r="K395" s="1" t="s">
         <v>203</v>
@@ -14435,13 +14432,13 @@
         <v>24</v>
       </c>
       <c r="J398">
-        <v>9687</v>
+        <v>9640</v>
       </c>
       <c r="K398" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L398" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M398" s="1" t="s">
         <v>22</v>
@@ -14549,13 +14546,13 @@
         <v>24</v>
       </c>
       <c r="J401">
-        <v>9766</v>
+        <v>9687</v>
       </c>
       <c r="K401" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L401" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M401" s="1" t="s">
         <v>22</v>
@@ -14701,7 +14698,7 @@
         <v>24</v>
       </c>
       <c r="J405">
-        <v>9767</v>
+        <v>9766</v>
       </c>
       <c r="K405" s="1" t="s">
         <v>203</v>
@@ -14777,7 +14774,7 @@
         <v>24</v>
       </c>
       <c r="J407">
-        <v>9771</v>
+        <v>9767</v>
       </c>
       <c r="K407" s="1" t="s">
         <v>203</v>
@@ -15043,13 +15040,13 @@
         <v>24</v>
       </c>
       <c r="J414">
-        <v>9827</v>
+        <v>9771</v>
       </c>
       <c r="K414" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L414" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M414" s="1" t="s">
         <v>22</v>
@@ -15157,13 +15154,13 @@
         <v>24</v>
       </c>
       <c r="J417">
-        <v>9917</v>
+        <v>9827</v>
       </c>
       <c r="K417" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L417" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M417" s="1" t="s">
         <v>22</v>
@@ -15385,13 +15382,13 @@
         <v>24</v>
       </c>
       <c r="J423">
-        <v>9965</v>
+        <v>9917</v>
       </c>
       <c r="K423" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L423" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M423" s="1" t="s">
         <v>22</v>
@@ -15461,13 +15458,13 @@
         <v>24</v>
       </c>
       <c r="J425">
-        <v>9999</v>
+        <v>9965</v>
       </c>
       <c r="K425" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L425" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M425" s="1" t="s">
         <v>22</v>
@@ -15537,13 +15534,13 @@
         <v>24</v>
       </c>
       <c r="J427">
-        <v>12337</v>
+        <v>9999</v>
       </c>
       <c r="K427" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L427" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M427" s="1" t="s">
         <v>22</v>
@@ -15613,13 +15610,13 @@
         <v>24</v>
       </c>
       <c r="J429">
-        <v>12382</v>
+        <v>12337</v>
       </c>
       <c r="K429" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L429" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M429" s="1" t="s">
         <v>22</v>
@@ -15651,7 +15648,7 @@
         <v>24</v>
       </c>
       <c r="J430">
-        <v>12404</v>
+        <v>12382</v>
       </c>
       <c r="K430" s="1" t="s">
         <v>203</v>
@@ -15689,13 +15686,13 @@
         <v>24</v>
       </c>
       <c r="J431">
-        <v>10394</v>
+        <v>12404</v>
       </c>
       <c r="K431" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L431" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M431" s="1" t="s">
         <v>22</v>
@@ -15727,13 +15724,13 @@
         <v>24</v>
       </c>
       <c r="J432">
-        <v>10500</v>
+        <v>10394</v>
       </c>
       <c r="K432" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L432" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M432" s="1" t="s">
         <v>22</v>
@@ -15841,7 +15838,7 @@
         <v>24</v>
       </c>
       <c r="J435">
-        <v>10877</v>
+        <v>10500</v>
       </c>
       <c r="K435" s="1" t="s">
         <v>203</v>
@@ -15879,13 +15876,13 @@
         <v>24</v>
       </c>
       <c r="J436">
-        <v>10894</v>
+        <v>10877</v>
       </c>
       <c r="K436" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L436" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M436" s="1" t="s">
         <v>22</v>
@@ -15917,13 +15914,13 @@
         <v>24</v>
       </c>
       <c r="J437">
-        <v>10914</v>
+        <v>10894</v>
       </c>
       <c r="K437" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L437" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M437" s="1" t="s">
         <v>22</v>
@@ -15955,13 +15952,13 @@
         <v>24</v>
       </c>
       <c r="J438">
-        <v>11258</v>
+        <v>10914</v>
       </c>
       <c r="K438" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L438" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M438" s="1" t="s">
         <v>22</v>
@@ -15993,13 +15990,13 @@
         <v>24</v>
       </c>
       <c r="J439">
-        <v>11744</v>
+        <v>11258</v>
       </c>
       <c r="K439" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L439" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M439" s="1" t="s">
         <v>22</v>
@@ -16069,13 +16066,13 @@
         <v>24</v>
       </c>
       <c r="J441">
-        <v>12095</v>
+        <v>11744</v>
       </c>
       <c r="K441" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L441" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M441" s="1" t="s">
         <v>22</v>
@@ -16107,13 +16104,13 @@
         <v>24</v>
       </c>
       <c r="J442">
-        <v>12151</v>
+        <v>12095</v>
       </c>
       <c r="K442" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L442" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M442" s="1" t="s">
         <v>22</v>
@@ -16145,13 +16142,13 @@
         <v>24</v>
       </c>
       <c r="J443">
-        <v>12182</v>
+        <v>12151</v>
       </c>
       <c r="K443" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L443" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M443" s="1" t="s">
         <v>22</v>
@@ -16259,13 +16256,13 @@
         <v>24</v>
       </c>
       <c r="J446">
-        <v>13083</v>
+        <v>12182</v>
       </c>
       <c r="K446" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L446" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M446" s="1" t="s">
         <v>22</v>
@@ -16373,13 +16370,13 @@
         <v>24</v>
       </c>
       <c r="J449">
-        <v>13261</v>
+        <v>13083</v>
       </c>
       <c r="K449" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L449" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M449" s="1" t="s">
         <v>22</v>
@@ -16487,13 +16484,13 @@
         <v>24</v>
       </c>
       <c r="J452">
-        <v>13452</v>
+        <v>13261</v>
       </c>
       <c r="K452" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L452" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M452" s="1" t="s">
         <v>22</v>
@@ -16905,13 +16902,13 @@
         <v>24</v>
       </c>
       <c r="J463">
-        <v>13846</v>
+        <v>13452</v>
       </c>
       <c r="K463" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L463" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M463" s="1" t="s">
         <v>22</v>
@@ -16981,13 +16978,13 @@
         <v>24</v>
       </c>
       <c r="J465">
-        <v>13976</v>
+        <v>13846</v>
       </c>
       <c r="K465" s="1" t="s">
         <v>203</v>
       </c>
       <c r="L465" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="M465" s="1" t="s">
         <v>22</v>
@@ -17186,8 +17183,46 @@
         <v>172</v>
       </c>
     </row>
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>206</v>
+      </c>
+      <c r="B471" t="s">
+        <v>21</v>
+      </c>
+      <c r="C471" t="s">
+        <v>25</v>
+      </c>
+      <c r="D471" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471" t="s">
+        <v>23</v>
+      </c>
+      <c r="F471" t="s">
+        <v>26</v>
+      </c>
+      <c r="I471" t="s">
+        <v>24</v>
+      </c>
+      <c r="J471">
+        <v>13976</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L471" t="s">
+        <v>201</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:N470"/>
+  <autoFilter ref="B1:N471"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
